--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Roshan Srivastava\Coding\Projects\WebScraping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB45D61-D4AD-493B-8C8D-49F65BC0836C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,7 +37,7 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>  Which among the given can be purified by the electrolytic method?</t>
+    <t xml:space="preserve">  Which among the given can be purified by the electrolytic method?</t>
   </si>
   <si>
     <t>(a)  Boron</t>
@@ -55,13 +49,13 @@
     <t>(c) Sodium (Na)</t>
   </si>
   <si>
-    <t>(d) </t>
+    <t xml:space="preserve">(d) </t>
   </si>
   <si>
     <t>(d)</t>
   </si>
   <si>
-    <t>  The Leaning Tower of Pisa does not fall because</t>
+    <t xml:space="preserve">  The Leaning Tower of Pisa does not fall because</t>
   </si>
   <si>
     <t>(a)  Its centre of gravity remains at the lowest position</t>
@@ -79,7 +73,7 @@
     <t>(d)The vertical line through the centre of gravity of the tower falls within its  base</t>
   </si>
   <si>
-    <t>  How far away from the surface of the Earth does the acceleration due  to gravity become Â½ of its value at the surface of Earth? It is at a</t>
+    <t xml:space="preserve">  How far away from the surface of the Earth does the acceleration due  to gravity become Â½ of its value at the surface of Earth? It is at a</t>
   </si>
   <si>
     <t>(a)  Distance equal to 0.414 times the radius</t>
@@ -97,7 +91,7 @@
     <t>(a) Distance equal to 0.414 times the radius</t>
   </si>
   <si>
-    <t>  The chemical name of 'laughing gas' is</t>
+    <t xml:space="preserve">  The chemical name of 'laughing gas' is</t>
   </si>
   <si>
     <t>(a)  Nitrogen pentoxide</t>
@@ -115,7 +109,7 @@
     <t>(d)Nitrous oxide</t>
   </si>
   <si>
-    <t>  Which among the given instruments is used to measure humidity -</t>
+    <t xml:space="preserve">  Which among the given instruments is used to measure humidity -</t>
   </si>
   <si>
     <t>(a)  Clinical Thermometer</t>
@@ -133,7 +127,7 @@
     <t>(c)Sling Psychrometer</t>
   </si>
   <si>
-    <t>  Fermentation of milk to curd is due to:</t>
+    <t xml:space="preserve">  Fermentation of milk to curd is due to:</t>
   </si>
   <si>
     <t>(a)  Mycobacterium</t>
@@ -151,7 +145,7 @@
     <t>(c)Lactobacillus</t>
   </si>
   <si>
-    <t>  The acid present in red ants is</t>
+    <t xml:space="preserve">  The acid present in red ants is</t>
   </si>
   <si>
     <t>(a)  Butyric acid</t>
@@ -169,7 +163,7 @@
     <t>(b)Formic acid</t>
   </si>
   <si>
-    <t>  Cokking gas is a mixture of</t>
+    <t xml:space="preserve">  Cokking gas is a mixture of</t>
   </si>
   <si>
     <t>(a)  butane &amp; propane</t>
@@ -187,7 +181,7 @@
     <t>(a) butane &amp; propane</t>
   </si>
   <si>
-    <t>  A catalyst is a substance which</t>
+    <t xml:space="preserve">  A catalyst is a substance which</t>
   </si>
   <si>
     <t>(a)  Changes the equilibrium of a reaction so that the concentration of the  product increases</t>
@@ -205,7 +199,7 @@
     <t>(d)Hastens the attainment of equilibrium</t>
   </si>
   <si>
-    <t>  Which among the given statements about the physical properties of  metal is not right?</t>
+    <t xml:space="preserve">  Which among the given statements about the physical properties of  metal is not right?</t>
   </si>
   <si>
     <t>(a)  All metals are solid except mercury</t>
@@ -223,7 +217,7 @@
     <t>(d)Metals are not malleable</t>
   </si>
   <si>
-    <t>  To draw maximum current from a combination of cells, how should  the cells be grouped?</t>
+    <t xml:space="preserve">  To draw maximum current from a combination of cells, how should  the cells be grouped?</t>
   </si>
   <si>
     <t>(a)  Depends upon the relative values of external and internal resistance</t>
@@ -241,7 +235,7 @@
     <t>(a) Depends upon the relative values of external and internal resistance</t>
   </si>
   <si>
-    <t>  The unit of ionic product of water (Kw) is:</t>
+    <t xml:space="preserve">  The unit of ionic product of water (Kw) is:</t>
   </si>
   <si>
     <t>(a)  Mol2 let-2</t>
@@ -259,7 +253,7 @@
     <t>(b)Mol-1 let-1</t>
   </si>
   <si>
-    <t>  Match List I (oxidation number) with List II (the element) and select  the right answer using the codesgiven below the lists.  List I (Oxidation number) List II (The elements)  A. 2 1. Oxidation number of Mn in MnO2  B. 3 2. Oxidation number of S in H2 S2 O7  C. 4 3. Oxidation number of Ca in CaO  D. 6 4. Oxidation number of Al in NaAIH4  Codes A B C D</t>
+    <t xml:space="preserve">  Match List I (oxidation number) with List II (the element) and select  the right answer using the codesgiven below the lists.  List I (Oxidation number) List II (The elements)  A. 2 1. Oxidation number of Mn in MnO2  B. 3 2. Oxidation number of S in H2 S2 O7  C. 4 3. Oxidation number of Ca in CaO  D. 6 4. Oxidation number of Al in NaAIH4  Codes A B C D</t>
   </si>
   <si>
     <t>(a)  4 3 2 1</t>
@@ -277,7 +271,7 @@
     <t>(d)3 4 1 2</t>
   </si>
   <si>
-    <t>  A fractionating column is a glass apparatus used to</t>
+    <t xml:space="preserve">  A fractionating column is a glass apparatus used to</t>
   </si>
   <si>
     <t>(a)  Separate a mixture in water</t>
@@ -295,7 +289,7 @@
     <t>(b)Separate two or more liquids</t>
   </si>
   <si>
-    <t>  Graphene is frequently in news recently. What is its importance?  1. It is a two-dimensional material and has good electrical conductivity.  2. It is one of the thinnest but strongest materials tested so far.  3. It is entirely made of silicon and has high optical transparency.  4. It can be used as 'conducting electrodes' required for touch screens, LCDs  and organic LEDs. Which of the statements(s) given above are right?</t>
+    <t xml:space="preserve">  Graphene is frequently in news recently. What is its importance?  1. It is a two-dimensional material and has good electrical conductivity.  2. It is one of the thinnest but strongest materials tested so far.  3. It is entirely made of silicon and has high optical transparency.  4. It can be used as 'conducting electrodes' required for touch screens, LCDs  and organic LEDs. Which of the statements(s) given above are right?</t>
   </si>
   <si>
     <t>(a)  3 and 4</t>
@@ -313,7 +307,7 @@
     <t>(c)1, 2 and 4</t>
   </si>
   <si>
-    <t>  Major portion of the earth's crust is mainly constituted by</t>
+    <t xml:space="preserve">  Major portion of the earth's crust is mainly constituted by</t>
   </si>
   <si>
     <t>(a)  Oxygen &amp; Iron</t>
@@ -331,7 +325,7 @@
     <t>(d)Oxygen &amp; Silicon</t>
   </si>
   <si>
-    <t>  A falling drop of rain water acquires the spherical shape due to</t>
+    <t xml:space="preserve">  A falling drop of rain water acquires the spherical shape due to</t>
   </si>
   <si>
     <t>(a)  Surface Tension</t>
@@ -349,7 +343,7 @@
     <t>(a) Surface Tension</t>
   </si>
   <si>
-    <t>  Critical reflection will take place if light travels from</t>
+    <t xml:space="preserve">  Critical reflection will take place if light travels from</t>
   </si>
   <si>
     <t>(a)  Air to water</t>
@@ -367,7 +361,7 @@
     <t>(d)Glass to air</t>
   </si>
   <si>
-    <t>  Two bulbs of 100W and 60W are operating on 220 V line. The ratio  of their resistance is</t>
+    <t xml:space="preserve">  Two bulbs of 100W and 60W are operating on 220 V line. The ratio  of their resistance is</t>
   </si>
   <si>
     <t>(a)  9:25</t>
@@ -385,7 +379,7 @@
     <t>(b)3:5</t>
   </si>
   <si>
-    <t>  What is the chemical name of bleaching powder?</t>
+    <t xml:space="preserve">  What is the chemical name of bleaching powder?</t>
   </si>
   <si>
     <t>(a)  Calcium hypochlorite</t>
@@ -403,7 +397,7 @@
     <t>(a) Calcium hypochlorite</t>
   </si>
   <si>
-    <t>  When lime juice is dropped on baking soda, brisk effervescence takes  place as the gas evolved is</t>
+    <t xml:space="preserve">  When lime juice is dropped on baking soda, brisk effervescence takes  place as the gas evolved is</t>
   </si>
   <si>
     <t>(a)  Oxygen</t>
@@ -421,7 +415,7 @@
     <t>(d)Carbon dioxide</t>
   </si>
   <si>
-    <t>  The important unit of a microprocessor is</t>
+    <t xml:space="preserve">  The important unit of a microprocessor is</t>
   </si>
   <si>
     <t>(a)  control unit</t>
@@ -439,7 +433,7 @@
     <t>(b)All of the above</t>
   </si>
   <si>
-    <t>  The important ore of aluminium is</t>
+    <t xml:space="preserve">  The important ore of aluminium is</t>
   </si>
   <si>
     <t>(a)  cryolite</t>
@@ -457,7 +451,7 @@
     <t>(d)bauxite</t>
   </si>
   <si>
-    <t>  Which among the given is the petroleum wax -</t>
+    <t xml:space="preserve">  Which among the given is the petroleum wax -</t>
   </si>
   <si>
     <t>(a)  Jojoba wax</t>
@@ -475,7 +469,7 @@
     <t>(c)Paraffin wax</t>
   </si>
   <si>
-    <t>  Which of the following one of the following group of gases  contribute to the 'Green House Effect' -</t>
+    <t xml:space="preserve">  Which of the following one of the following group of gases  contribute to the 'Green House Effect' -</t>
   </si>
   <si>
     <t>(a)  Carbon monoxide &amp; Sulphur dioxide</t>
@@ -493,7 +487,7 @@
     <t>(c)Carbon dioxide &amp; Methane</t>
   </si>
   <si>
-    <t>  Electric fuse is an alloy of</t>
+    <t xml:space="preserve">  Electric fuse is an alloy of</t>
   </si>
   <si>
     <t>(a)  tin &amp; lead</t>
@@ -511,7 +505,7 @@
     <t>(a) tin &amp; lead</t>
   </si>
   <si>
-    <t>  The process of covering water pipes made of Iron with Zinc layer to  prevent corrosion is called:</t>
+    <t xml:space="preserve">  The process of covering water pipes made of Iron with Zinc layer to  prevent corrosion is called:</t>
   </si>
   <si>
     <t>(a)  Galvanization</t>
@@ -529,7 +523,7 @@
     <t>(a) Galvanization</t>
   </si>
   <si>
-    <t>  Which among the given property of sound is affected by change in  air temperature</t>
+    <t xml:space="preserve">  Which among the given property of sound is affected by change in  air temperature</t>
   </si>
   <si>
     <t>(a)  Intensity</t>
@@ -547,7 +541,7 @@
     <t>(b)Wavelength</t>
   </si>
   <si>
-    <t>  Oxygen which is vital for life is a product of photosynthesis &amp; comes  from</t>
+    <t xml:space="preserve">  Oxygen which is vital for life is a product of photosynthesis &amp; comes  from</t>
   </si>
   <si>
     <t>(a)  water</t>
@@ -565,7 +559,7 @@
     <t>(a) water</t>
   </si>
   <si>
-    <t>  Which among the given is most elastic -</t>
+    <t xml:space="preserve">  Which among the given is most elastic -</t>
   </si>
   <si>
     <t>(a)  Steel</t>
@@ -583,7 +577,7 @@
     <t>(a) Steel</t>
   </si>
   <si>
-    <t>  The fat of a common mussel-secretes a sticky glue that can be used to  make heart implants. The unique chemical compound present in the glue is:</t>
+    <t xml:space="preserve">  The fat of a common mussel-secretes a sticky glue that can be used to  make heart implants. The unique chemical compound present in the glue is:</t>
   </si>
   <si>
     <t>(a)  Phenyl alanine</t>
@@ -601,7 +595,7 @@
     <t>(c)Dihydroxy phenyl alanine</t>
   </si>
   <si>
-    <t>  Which of the following one of the following minerals is found in  pure form -</t>
+    <t xml:space="preserve">  Which of the following one of the following minerals is found in  pure form -</t>
   </si>
   <si>
     <t>(a)  Copper</t>
@@ -619,7 +613,7 @@
     <t>(a) Copper</t>
   </si>
   <si>
-    <t>  The name of unreactive gas is</t>
+    <t xml:space="preserve">  The name of unreactive gas is</t>
   </si>
   <si>
     <t>(a)  Carbon dioxide</t>
@@ -637,7 +631,7 @@
     <t>(d)Nitrogen</t>
   </si>
   <si>
-    <t>  Which among the given is not a method of preparing oxygen -</t>
+    <t xml:space="preserve">  Which among the given is not a method of preparing oxygen -</t>
   </si>
   <si>
     <t>(a)  Decomposition of potassium permanganate</t>
@@ -655,7 +649,7 @@
     <t>(c)Decomposition of manganese dioxide</t>
   </si>
   <si>
-    <t>  Which among the given is used to make light weight, but strong  plastic -</t>
+    <t xml:space="preserve">  Which among the given is used to make light weight, but strong  plastic -</t>
   </si>
   <si>
     <t>(a)  Polythene</t>
@@ -673,7 +667,7 @@
     <t>(b)Polyvinyl Chloride</t>
   </si>
   <si>
-    <t>  As we go from Equator to North pole the value of 'g', the  acceleration due to gravity</t>
+    <t xml:space="preserve">  As we go from Equator to North pole the value of 'g', the  acceleration due to gravity</t>
   </si>
   <si>
     <t>(a)  remains the same</t>
@@ -691,7 +685,7 @@
     <t>(d)increases</t>
   </si>
   <si>
-    <t>  Bleaching powder is used in drinking water as a/an</t>
+    <t xml:space="preserve">  Bleaching powder is used in drinking water as a/an</t>
   </si>
   <si>
     <t>(a)  coagulant (FCI Assistant Grade-III Exam. 5.02.2013 (Paper-1)</t>
@@ -709,7 +703,7 @@
     <t>(b)disinfectant</t>
   </si>
   <si>
-    <t>  Nitrogen forms a variety of compounds in all oxidation states ranging  from</t>
+    <t xml:space="preserve">  Nitrogen forms a variety of compounds in all oxidation states ranging  from</t>
   </si>
   <si>
     <t>(a)  â€“3 to + 6</t>
@@ -727,7 +721,7 @@
     <t>(d)â€“3 to + 5</t>
   </si>
   <si>
-    <t>  Potassium Permanganate is used for purifying drinking water,  because_________</t>
+    <t xml:space="preserve">  Potassium Permanganate is used for purifying drinking water,  because_________</t>
   </si>
   <si>
     <t>(a)  It dissolves the impurities of water</t>
@@ -745,7 +739,7 @@
     <t>(b)It is an oxidising agent</t>
   </si>
   <si>
-    <t>  Of the following which one pollutes the air of a big city -</t>
+    <t xml:space="preserve">  Of the following which one pollutes the air of a big city -</t>
   </si>
   <si>
     <t>(a)  Calcium</t>
@@ -763,7 +757,7 @@
     <t>(c)Lead</t>
   </si>
   <si>
-    <t>  The layer of atmosphere used for radio-wave transmission is</t>
+    <t xml:space="preserve">  The layer of atmosphere used for radio-wave transmission is</t>
   </si>
   <si>
     <t>(a)  chromosphere</t>
@@ -781,7 +775,7 @@
     <t>(c)ionosphere</t>
   </si>
   <si>
-    <t>  The number of neutrons in its nucleus is</t>
+    <t xml:space="preserve">  The number of neutrons in its nucleus is</t>
   </si>
   <si>
     <t>(a)  53</t>
@@ -799,7 +793,7 @@
     <t>(a) 53</t>
   </si>
   <si>
-    <t>  Plants are dried up in winter due to frost as</t>
+    <t xml:space="preserve">  Plants are dried up in winter due to frost as</t>
   </si>
   <si>
     <t>(a)  There is mechanical loss of tissues &amp; drought condition prevails</t>
@@ -817,7 +811,7 @@
     <t>(a) There is mechanical loss of tissues &amp; drought condition prevails</t>
   </si>
   <si>
-    <t>  Which among the given substance's smell is similar to Ethanoic acid  -</t>
+    <t xml:space="preserve">  Which among the given substance's smell is similar to Ethanoic acid  -</t>
   </si>
   <si>
     <t>(a)  Lemon</t>
@@ -835,7 +829,7 @@
     <t>(d)Vinegar</t>
   </si>
   <si>
-    <t>  Stainless steel is an alloy of</t>
+    <t xml:space="preserve">  Stainless steel is an alloy of</t>
   </si>
   <si>
     <t>(a)  chromium, carbon &amp; iron</t>
@@ -853,7 +847,7 @@
     <t>(a) chromium, carbon &amp; iron</t>
   </si>
   <si>
-    <t>  The nature of fuse wire is</t>
+    <t xml:space="preserve">  The nature of fuse wire is</t>
   </si>
   <si>
     <t>(a)  low resistance &amp; low melting point.</t>
@@ -871,7 +865,7 @@
     <t>(c)high resistance &amp; low melting point.</t>
   </si>
   <si>
-    <t>  Radioactive elements emit:</t>
+    <t xml:space="preserve">  Radioactive elements emit:</t>
   </si>
   <si>
     <t>(a)  a, b &amp; g radiations</t>
@@ -889,7 +883,7 @@
     <t>(a) a, b &amp; g radiations</t>
   </si>
   <si>
-    <t>  As per the theory of relativity, Which among the given always  remains constant -</t>
+    <t xml:space="preserve">  As per the theory of relativity, Which among the given always  remains constant -</t>
   </si>
   <si>
     <t>(a)  Velocity of light</t>
@@ -907,7 +901,7 @@
     <t>(a) Velocity of light</t>
   </si>
   <si>
-    <t>  The most suitable unit for expressing nuclear radius is:</t>
+    <t xml:space="preserve">  The most suitable unit for expressing nuclear radius is:</t>
   </si>
   <si>
     <t>(a)  fermi</t>
@@ -925,7 +919,7 @@
     <t>(c)angstrom</t>
   </si>
   <si>
-    <t>  Conversion of sound energy into electrical energy is done by</t>
+    <t xml:space="preserve">  Conversion of sound energy into electrical energy is done by</t>
   </si>
   <si>
     <t>(a)  Gramophone</t>
@@ -943,7 +937,7 @@
     <t>(d)Microphone</t>
   </si>
   <si>
-    <t>  Quartz is a crystalline form of</t>
+    <t xml:space="preserve">  Quartz is a crystalline form of</t>
   </si>
   <si>
     <t>(a)  Glass</t>
@@ -961,7 +955,7 @@
     <t>(d)Silica</t>
   </si>
   <si>
-    <t>  According to Einstein's mass-energy relation</t>
+    <t xml:space="preserve">  According to Einstein's mass-energy relation</t>
   </si>
   <si>
     <t>(a)  E = m2 c</t>
@@ -979,7 +973,7 @@
     <t>(d)E = mc2</t>
   </si>
   <si>
-    <t>  In Which among the given states max. iron ore is found -</t>
+    <t xml:space="preserve">  In Which among the given states max. iron ore is found -</t>
   </si>
   <si>
     <t>(a)  FeCO3</t>
@@ -997,7 +991,7 @@
     <t>(d)Fe2O3</t>
   </si>
   <si>
-    <t>  The most common cause of pollution of air is</t>
+    <t xml:space="preserve">  The most common cause of pollution of air is</t>
   </si>
   <si>
     <t>(a)  Carbon monoxide</t>
@@ -1012,7 +1006,7 @@
     <t>(c)Sulphur dioxide</t>
   </si>
   <si>
-    <t>  Which of the following one of the following organic compounds has  fruity smell -</t>
+    <t xml:space="preserve">  Which of the following one of the following organic compounds has  fruity smell -</t>
   </si>
   <si>
     <t>(a)  Ether</t>
@@ -1030,7 +1024,7 @@
     <t>(d)Ester</t>
   </si>
   <si>
-    <t>  Iron rusts quickly in</t>
+    <t xml:space="preserve">  Iron rusts quickly in</t>
   </si>
   <si>
     <t>(a)  Sea water</t>
@@ -1048,7 +1042,7 @@
     <t>(a) Sea water</t>
   </si>
   <si>
-    <t>  Which among the given is responsible for permanent hardness of  water -</t>
+    <t xml:space="preserve">  Which among the given is responsible for permanent hardness of  water -</t>
   </si>
   <si>
     <t>(a)  calcium sulphate</t>
@@ -1066,7 +1060,7 @@
     <t>(a) calcium sulphate</t>
   </si>
   <si>
-    <t>  The blue colour of water in the sea is due to</t>
+    <t xml:space="preserve">  The blue colour of water in the sea is due to</t>
   </si>
   <si>
     <t>(a)  absorption of other colours except blue by water molecules</t>
@@ -1084,7 +1078,7 @@
     <t>(a) absorption of other colours except blue by water molecules</t>
   </si>
   <si>
-    <t>  If the distance between two charges is halved, then the force between  them becomes</t>
+    <t xml:space="preserve">  If the distance between two charges is halved, then the force between  them becomes</t>
   </si>
   <si>
     <t>(a)  One-fourth</t>
@@ -1102,7 +1096,7 @@
     <t>(d)Four times</t>
   </si>
   <si>
-    <t>  Glass is a</t>
+    <t xml:space="preserve">  Glass is a</t>
   </si>
   <si>
     <t>(a)  supercooled gas</t>
@@ -1120,7 +1114,7 @@
     <t>(c)supercooled liquid</t>
   </si>
   <si>
-    <t>  The colours of stars depend on their</t>
+    <t xml:space="preserve">  The colours of stars depend on their</t>
   </si>
   <si>
     <t>(a)  distance</t>
@@ -1138,7 +1132,7 @@
     <t>(b)temperature</t>
   </si>
   <si>
-    <t>  Which among the given is not a commercial source of energy -</t>
+    <t xml:space="preserve">  Which among the given is not a commercial source of energy -</t>
   </si>
   <si>
     <t>(a)  Petroleum</t>
@@ -1156,7 +1150,7 @@
     <t>(b)Firewood</t>
   </si>
   <si>
-    <t>  Evidence for the existence of energy level in atom is supplied by</t>
+    <t xml:space="preserve">  Evidence for the existence of energy level in atom is supplied by</t>
   </si>
   <si>
     <t>(a)  Atomic radii</t>
@@ -1174,7 +1168,7 @@
     <t>(d)Spectral lines</t>
   </si>
   <si>
-    <t>  The percentage of nitrogen present in ammonium sulphate is:</t>
+    <t xml:space="preserve">  The percentage of nitrogen present in ammonium sulphate is:</t>
   </si>
   <si>
     <t>(a)  18%</t>
@@ -1192,7 +1186,7 @@
     <t>(b)27%</t>
   </si>
   <si>
-    <t>  Atomic explosion is triggered by</t>
+    <t xml:space="preserve">  Atomic explosion is triggered by</t>
   </si>
   <si>
     <t>(a)  chemical reaction</t>
@@ -1210,7 +1204,7 @@
     <t>(b)uncontrolled chain reaction</t>
   </si>
   <si>
-    <t>  Which among the given metals form an amalgam with other metals -</t>
+    <t xml:space="preserve">  Which among the given metals form an amalgam with other metals -</t>
   </si>
   <si>
     <t>(a)  Zinc</t>
@@ -1228,7 +1222,7 @@
     <t>(c)Mercury</t>
   </si>
   <si>
-    <t>  The metal used for making aircrafts &amp; rockets is</t>
+    <t xml:space="preserve">  The metal used for making aircrafts &amp; rockets is</t>
   </si>
   <si>
     <t>(a)  Aluminium</t>
@@ -1243,7 +1237,7 @@
     <t>(b)Nickel</t>
   </si>
   <si>
-    <t>  Which among the given processes is used for the production of  Biodiesel -</t>
+    <t xml:space="preserve">  Which among the given processes is used for the production of  Biodiesel -</t>
   </si>
   <si>
     <t>(a)  Translation</t>
@@ -1261,7 +1255,7 @@
     <t>(d)Transesterification</t>
   </si>
   <si>
-    <t>  Which among the given metals causes Itai-Itai disease -</t>
+    <t xml:space="preserve">  Which among the given metals causes Itai-Itai disease -</t>
   </si>
   <si>
     <t>(a)  Cadmium</t>
@@ -1276,7 +1270,7 @@
     <t>(a) Cadmium</t>
   </si>
   <si>
-    <t>  In vulcanisation process, rubber can be hardened by adding</t>
+    <t xml:space="preserve">  In vulcanisation process, rubber can be hardened by adding</t>
   </si>
   <si>
     <t>(a)  Silicon</t>
@@ -1294,7 +1288,7 @@
     <t>(c)Sulphur</t>
   </si>
   <si>
-    <t>  Which among the given supports particle nature of photons -</t>
+    <t xml:space="preserve">  Which among the given supports particle nature of photons -</t>
   </si>
   <si>
     <t>(a)  Diffraction</t>
@@ -1312,7 +1306,7 @@
     <t>(c)Photoelectric effect</t>
   </si>
   <si>
-    <t>  The weight of a body acts through the core of</t>
+    <t xml:space="preserve">  The weight of a body acts through the core of</t>
   </si>
   <si>
     <t>(a)  mass</t>
@@ -1330,7 +1324,7 @@
     <t>(c)gravity</t>
   </si>
   <si>
-    <t>  Nucleus of an atom consists of.</t>
+    <t xml:space="preserve">  Nucleus of an atom consists of.</t>
   </si>
   <si>
     <t>(a)  Electron, Proton &amp; Neutron</t>
@@ -1348,7 +1342,7 @@
     <t>(b)Proton &amp; Neutron</t>
   </si>
   <si>
-    <t>  When number of turns in a coil is trippled, without any change in the  length of coil, its self inductance becomes -</t>
+    <t xml:space="preserve">  When number of turns in a coil is trippled, without any change in the  length of coil, its self inductance becomes -</t>
   </si>
   <si>
     <t>(a)  Nine times</t>
@@ -1366,7 +1360,7 @@
     <t>(a) Nine times</t>
   </si>
   <si>
-    <t>  Stains of rust on clothes can be removed by:</t>
+    <t xml:space="preserve">  Stains of rust on clothes can be removed by:</t>
   </si>
   <si>
     <t>(a)  Petrol</t>
@@ -1381,7 +1375,7 @@
     <t>(b)Oxalic acid</t>
   </si>
   <si>
-    <t>  The atmospheric layer reflecting radio waves is called</t>
+    <t xml:space="preserve">  The atmospheric layer reflecting radio waves is called</t>
   </si>
   <si>
     <t>(a)  Mesosphere</t>
@@ -1399,7 +1393,7 @@
     <t>(c)Ionosphere</t>
   </si>
   <si>
-    <t>  What is the main ore of aluminium -</t>
+    <t xml:space="preserve">  What is the main ore of aluminium -</t>
   </si>
   <si>
     <t>(a)  Dolomite</t>
@@ -1414,7 +1408,7 @@
     <t>(b)Bauxite</t>
   </si>
   <si>
-    <t>  After reflection from a plane mirror the word will look like.</t>
+    <t xml:space="preserve">  After reflection from a plane mirror the word will look like.</t>
   </si>
   <si>
     <t>(a)  AWBULANCE</t>
@@ -1432,7 +1426,7 @@
     <t>(d)AMBULA CE</t>
   </si>
   <si>
-    <t>  Organic food is supposed to be better for human consumption  because:</t>
+    <t xml:space="preserve">  Organic food is supposed to be better for human consumption  because:</t>
   </si>
   <si>
     <t>(a)  It is grown in glass house &amp; air tight environment.</t>
@@ -1450,7 +1444,7 @@
     <t>(c)It is grown without the use of chemicals &amp; synthetic pesticides.</t>
   </si>
   <si>
-    <t>  Holes in a semiconductor behave as though they have</t>
+    <t xml:space="preserve">  Holes in a semiconductor behave as though they have</t>
   </si>
   <si>
     <t>(a)  Negative charge</t>
@@ -1468,7 +1462,7 @@
     <t>(b)Positive charge</t>
   </si>
   <si>
-    <t>  Which of the following one of the following does not contain silver -</t>
+    <t xml:space="preserve">  Which of the following one of the following does not contain silver -</t>
   </si>
   <si>
     <t>(a)  Ruby silver</t>
@@ -1486,7 +1480,7 @@
     <t>(c)German silver</t>
   </si>
   <si>
-    <t>  The two metal ions that cause hardness to water are:</t>
+    <t xml:space="preserve">  The two metal ions that cause hardness to water are:</t>
   </si>
   <si>
     <t>(a)  Sodium, Potassium</t>
@@ -1504,7 +1498,7 @@
     <t>(c)Calcium, Magnesium</t>
   </si>
   <si>
-    <t>  What happens if a bar magnet is cut into two pieces, transverse to its  length?</t>
+    <t xml:space="preserve">  What happens if a bar magnet is cut into two pieces, transverse to its  length?</t>
   </si>
   <si>
     <t>(a)  Each piece will have either two north poles or two south poles</t>
@@ -1522,7 +1516,7 @@
     <t>(c)Each piece will be a magnet with either north or south poles at each end</t>
   </si>
   <si>
-    <t>  Velocity-time graph of a particle executing SHM is shown in figure.  Select the right alternative.</t>
+    <t xml:space="preserve">  Velocity-time graph of a particle executing SHM is shown in figure.  Select the right alternative.</t>
   </si>
   <si>
     <t>(a)  At position 1 displacement of particle may be positive or negative</t>
@@ -1540,7 +1534,7 @@
     <t>(b)At position 3 acceleration of particle is positive</t>
   </si>
   <si>
-    <t>  A light yr is a measure of:</t>
+    <t xml:space="preserve">  A light yr is a measure of:</t>
   </si>
   <si>
     <t>(a)  Velocity</t>
@@ -1558,7 +1552,7 @@
     <t>(b)Distance</t>
   </si>
   <si>
-    <t>  The buffer action of blood is due to the presence of</t>
+    <t xml:space="preserve">  The buffer action of blood is due to the presence of</t>
   </si>
   <si>
     <t>(a)  HCI &amp; NaCI</t>
@@ -1576,7 +1570,7 @@
     <t>(c)HCO3 - &amp; H2CO3</t>
   </si>
   <si>
-    <t>  A soap bubble shows colours when illuminated with white light. This  is due to</t>
+    <t xml:space="preserve">  A soap bubble shows colours when illuminated with white light. This  is due to</t>
   </si>
   <si>
     <t>(a)  Polarisation</t>
@@ -1594,7 +1588,7 @@
     <t>(b)Interference</t>
   </si>
   <si>
-    <t>  The gas which turns into liquid at the lowest temperature among the  following is</t>
+    <t xml:space="preserve">  The gas which turns into liquid at the lowest temperature among the  following is</t>
   </si>
   <si>
     <t>(a)  hydrogen</t>
@@ -1612,7 +1606,7 @@
     <t>(a) hydrogen</t>
   </si>
   <si>
-    <t>  Outside of cooking utensils are generally left black from below as</t>
+    <t xml:space="preserve">  Outside of cooking utensils are generally left black from below as</t>
   </si>
   <si>
     <t>(a)  black surface is a good conductor of heat.</t>
@@ -1630,7 +1624,7 @@
     <t>(c)black surface is a good absorber of heat.</t>
   </si>
   <si>
-    <t>  Uranium eventually decays into a stable isotope of -</t>
+    <t xml:space="preserve">  Uranium eventually decays into a stable isotope of -</t>
   </si>
   <si>
     <t>(a)  Thorium</t>
@@ -1651,8 +1645,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,14 +1692,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1752,7 +1738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1784,27 +1770,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1836,24 +1804,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2029,24 +1979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2092,7 +2032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2115,7 +2055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2138,7 +2078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2161,7 +2101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2184,7 +2124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2207,7 +2147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2230,7 +2170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="30" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2253,7 +2193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2276,7 +2216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2299,7 +2239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2322,7 +2262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2345,7 +2285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2368,7 +2308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2391,7 +2331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2414,7 +2354,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2437,7 +2377,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2460,7 +2400,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2483,7 +2423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" customHeight="1">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2506,7 +2446,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2529,7 +2469,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2552,7 +2492,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2575,7 +2515,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2598,7 +2538,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="30" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2621,7 +2561,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2644,7 +2584,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2667,7 +2607,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2690,7 +2630,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2713,7 +2653,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2736,7 +2676,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2759,7 +2699,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2782,7 +2722,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2805,7 +2745,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" customHeight="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2828,7 +2768,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" customHeight="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2851,7 +2791,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2874,7 +2814,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2897,7 +2837,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2920,7 +2860,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" customHeight="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2943,7 +2883,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" customHeight="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2966,7 +2906,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2989,7 +2929,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3012,7 +2952,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3035,7 +2975,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="30" customHeight="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3058,7 +2998,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" customHeight="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3081,7 +3021,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" customHeight="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3104,7 +3044,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" customHeight="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3127,7 +3067,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" customHeight="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3150,7 +3090,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" customHeight="1">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3173,7 +3113,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" customHeight="1">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3196,7 +3136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30" customHeight="1">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3219,7 +3159,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" customHeight="1">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3242,7 +3182,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" customHeight="1">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3265,7 +3205,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" customHeight="1">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3288,7 +3228,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" customHeight="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3311,7 +3251,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="30" customHeight="1">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3334,7 +3274,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="30" customHeight="1">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3357,7 +3297,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30" customHeight="1">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3380,7 +3320,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="30" customHeight="1">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3403,7 +3343,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" customHeight="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3426,7 +3366,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="30" customHeight="1">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3449,7 +3389,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="30" customHeight="1">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3472,7 +3412,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="30" customHeight="1">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3495,7 +3435,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="30" customHeight="1">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3518,7 +3458,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="30" customHeight="1">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3541,7 +3481,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="30" customHeight="1">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3564,7 +3504,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="30" customHeight="1">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3587,7 +3527,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="30" customHeight="1">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3610,7 +3550,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="30" customHeight="1">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3633,7 +3573,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="30" customHeight="1">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3656,7 +3596,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="30" customHeight="1">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3679,7 +3619,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" customHeight="1">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3702,7 +3642,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" customHeight="1">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3725,7 +3665,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30" customHeight="1">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3748,7 +3688,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="30" customHeight="1">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3771,7 +3711,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="30" customHeight="1">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3794,7 +3734,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="30" customHeight="1">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3817,7 +3757,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="30" customHeight="1">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3840,7 +3780,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="30" customHeight="1">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3863,7 +3803,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30" customHeight="1">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3886,7 +3826,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="30" customHeight="1">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3909,7 +3849,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="30" customHeight="1">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3932,7 +3872,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="30" customHeight="1">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3955,7 +3895,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="30" customHeight="1">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3978,7 +3918,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30" customHeight="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4001,7 +3941,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="30" customHeight="1">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4024,7 +3964,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="30" customHeight="1">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4047,7 +3987,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="30" customHeight="1">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4070,7 +4010,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="30" customHeight="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4093,7 +4033,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="30" customHeight="1">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4116,7 +4056,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="30" customHeight="1">
       <c r="A91">
         <v>90</v>
       </c>
